--- a/Amsterdam/misc/BADM-Instrument/AAMS-BADM-Instrument-v2020.xlsx
+++ b/Amsterdam/misc/BADM-Instrument/AAMS-BADM-Instrument-v2020.xlsx
@@ -8,21 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\AAMS_archive\FLUXNET\Amsterdam\misc\BADM-Instrument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE33731-E8EA-41DC-A71D-2B1D82C9D65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804E026B-2E9C-40FF-AE85-FD25E429F69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrument" sheetId="1" r:id="rId1"/>
     <sheet name="LIST(Vocabulary)" sheetId="2" r:id="rId2"/>
     <sheet name="Explanations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="495">
   <si>
     <t>Variable</t>
   </si>
@@ -1455,9 +1468,6 @@
     <t>Kipp&amp;Zonen CG2</t>
   </si>
   <si>
-    <t>Licor Li-7500 / Campbell CSAT3</t>
-  </si>
-  <si>
     <t>Kipp&amp;Zonen CM11</t>
   </si>
   <si>
@@ -1480,13 +1490,43 @@
   </si>
   <si>
     <t>U,V,W</t>
+  </si>
+  <si>
+    <t>Licor Li-7700</t>
+  </si>
+  <si>
+    <t>Methane concentration</t>
+  </si>
+  <si>
+    <t>Campbell CSAT3</t>
+  </si>
+  <si>
+    <t>Licor Li-7500</t>
+  </si>
+  <si>
+    <t>AM_RAD_1</t>
+  </si>
+  <si>
+    <t>AM_RAD_2</t>
+  </si>
+  <si>
+    <t>AM_CH4_1</t>
+  </si>
+  <si>
+    <t>AM_LI_1</t>
+  </si>
+  <si>
+    <t>AM_CSAT_1</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1498,6 +1538,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1513,8 +1554,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1561,12 +1607,6 @@
         <fgColor rgb="FFCBFFF7"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1581,7 +1621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1611,12 +1651,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1920,18 +1961,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" style="16" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1944,8 +1987,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1959,7 +2003,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1973,7 +2017,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1987,7 +2031,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2000,8 +2044,9 @@
       <c r="D5" s="12" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -2011,9 +2056,12 @@
       <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="18">
+        <v>20250515</v>
+      </c>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -2023,17 +2071,23 @@
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2043,11 +2097,23 @@
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -2057,17 +2123,20 @@
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D9" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -2080,14 +2149,20 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>0</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -2098,16 +2173,22 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
+        <v>479</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="F11" t="s">
+        <v>486</v>
+      </c>
+      <c r="G11" t="s">
+        <v>481</v>
+      </c>
+      <c r="H11" t="s">
         <v>480</v>
       </c>
-      <c r="E11" t="s">
-        <v>482</v>
-      </c>
-      <c r="F11" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -2117,11 +2198,23 @@
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="F12" t="s">
+        <v>494</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -2131,17 +2224,23 @@
       <c r="C13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="E13" s="17">
+      <c r="D13" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="18">
         <v>1</v>
       </c>
-      <c r="F13" s="17">
+      <c r="H13" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -2151,8 +2250,19 @@
       <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -2162,17 +2272,23 @@
       <c r="C15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>484</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>484</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D15" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
@@ -2182,17 +2298,23 @@
       <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>484</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>484</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D16" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -2202,17 +2324,23 @@
       <c r="C17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D17" t="s">
-        <v>484</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" s="18" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F17" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -2222,11 +2350,23 @@
       <c r="C18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D18" s="18">
+        <v>225</v>
+      </c>
+      <c r="E18" s="18">
+        <v>225</v>
+      </c>
+      <c r="F18" s="18">
+        <v>225</v>
+      </c>
+      <c r="G18" s="18">
+        <v>180</v>
+      </c>
+      <c r="H18" s="18">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -2236,11 +2376,11 @@
       <c r="C19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D19" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2251,7 +2391,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -2261,9 +2401,10 @@
       <c r="C21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>57</v>
       </c>
@@ -2274,7 +2415,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>60</v>
       </c>
@@ -2285,7 +2426,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -2296,7 +2437,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>66</v>
       </c>
@@ -2307,7 +2448,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>69</v>
       </c>
@@ -2318,7 +2459,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>72</v>
       </c>
@@ -2329,7 +2470,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>75</v>
       </c>
@@ -2339,9 +2480,15 @@
       <c r="C28" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="13"/>
-    </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D28" s="18">
+        <v>225</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>77</v>
       </c>
@@ -2351,9 +2498,15 @@
       <c r="C29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D29" s="18">
+        <v>90</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>80</v>
       </c>
@@ -2363,17 +2516,16 @@
       <c r="C30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>476</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D30" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>81</v>
       </c>
@@ -2384,7 +2536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>82</v>
       </c>
@@ -2394,17 +2546,16 @@
       <c r="C32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>476</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D32" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>83</v>
       </c>
@@ -2415,7 +2566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>84</v>
       </c>
@@ -2425,17 +2576,16 @@
       <c r="C34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>86</v>
       </c>
@@ -2448,14 +2598,11 @@
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="16">
         <v>0</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>88</v>
       </c>
@@ -2465,8 +2612,9 @@
       <c r="C36" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D36" s="18"/>
+    </row>
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>90</v>
       </c>
@@ -2476,9 +2624,14 @@
       <c r="C37" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="13"/>
-    </row>
-    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D37" s="18">
+        <v>0.24</v>
+      </c>
+      <c r="E37" s="16">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>93</v>
       </c>
@@ -2488,9 +2641,14 @@
       <c r="C38" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="13"/>
-    </row>
-    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D38" s="18">
+        <v>0</v>
+      </c>
+      <c r="E38" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>95</v>
       </c>
@@ -2500,7 +2658,12 @@
       <c r="C39" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="13"/>
+      <c r="D39" s="18">
+        <v>0</v>
+      </c>
+      <c r="E39" s="16">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2514,7 +2677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C174"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -4422,8 +4585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
